--- a/5不到达地址维护/bdd.xlsx
+++ b/5不到达地址维护/bdd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30140" windowHeight="15320"/>
+    <workbookView windowWidth="31920" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,38 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>东至县</t>
-  </si>
-  <si>
-    <t>姑苏区</t>
-  </si>
-  <si>
-    <t>吴中区</t>
-  </si>
-  <si>
-    <t>虎丘区</t>
-  </si>
-  <si>
-    <t>玄武区</t>
-  </si>
-  <si>
     <t>德城区</t>
   </si>
   <si>
-    <t>南湖区</t>
-  </si>
-  <si>
-    <t>余姚市</t>
-  </si>
-  <si>
-    <t>慈溪市</t>
-  </si>
-  <si>
     <t>东西湖区</t>
   </si>
   <si>
@@ -61,25 +37,34 @@
     <t>新宁县</t>
   </si>
   <si>
+    <t>宁乡市</t>
+  </si>
+  <si>
     <t>雨花区</t>
   </si>
   <si>
     <t>商城县</t>
   </si>
   <si>
-    <t>博罗县</t>
+    <t>东城区</t>
   </si>
   <si>
     <t>中宁县</t>
   </si>
   <si>
+    <t>汇川区</t>
+  </si>
+  <si>
+    <t>南明区</t>
+  </si>
+  <si>
     <t>瑞丽市</t>
   </si>
   <si>
     <t>甘井子区</t>
   </si>
   <si>
-    <t>南岗区</t>
+    <t>宽城区</t>
   </si>
   <si>
     <t>船营区</t>
@@ -92,8 +77,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -116,17 +101,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,13 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -152,112 +243,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -274,6 +259,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,175 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +484,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,30 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +557,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -584,100 +578,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,65 +671,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,13 +743,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1127,7 +1109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:A$1048576"/>
@@ -1174,7 +1156,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1214,42 +1196,32 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
+      <c r="A23"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24"/>
@@ -1344,20 +1316,8 @@
     <row r="54" spans="1:1">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A59:A1048576">
+  <conditionalFormatting sqref="A1 A55:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5不到达地址维护/bdd.xlsx
+++ b/5不到达地址维护/bdd.xlsx
@@ -17,57 +17,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>德城区</t>
-  </si>
-  <si>
-    <t>东西湖区</t>
-  </si>
-  <si>
-    <t>西陵区</t>
+    <t>天涯区</t>
+  </si>
+  <si>
+    <t>盈江县</t>
+  </si>
+  <si>
+    <t>陇川县</t>
+  </si>
+  <si>
+    <t>瑞丽市</t>
+  </si>
+  <si>
+    <t>呈贡区</t>
+  </si>
+  <si>
+    <t>胶州市</t>
+  </si>
+  <si>
+    <t>旬阳县</t>
+  </si>
+  <si>
+    <t>塔什库尔干塔吉克自治县</t>
+  </si>
+  <si>
+    <t>紫阳县</t>
+  </si>
+  <si>
+    <t>平利县</t>
+  </si>
+  <si>
+    <t>白河县</t>
   </si>
   <si>
     <t>衡阳县</t>
   </si>
   <si>
-    <t>新宁县</t>
-  </si>
-  <si>
-    <t>宁乡市</t>
-  </si>
-  <si>
-    <t>雨花区</t>
-  </si>
-  <si>
-    <t>商城县</t>
-  </si>
-  <si>
-    <t>东城区</t>
-  </si>
-  <si>
-    <t>中宁县</t>
-  </si>
-  <si>
-    <t>汇川区</t>
-  </si>
-  <si>
-    <t>南明区</t>
-  </si>
-  <si>
-    <t>瑞丽市</t>
-  </si>
-  <si>
-    <t>甘井子区</t>
-  </si>
-  <si>
-    <t>宽城区</t>
-  </si>
-  <si>
-    <t>船营区</t>
+    <t>零陵区</t>
+  </si>
+  <si>
+    <t>柯坪县</t>
+  </si>
+  <si>
+    <t>泽库县</t>
+  </si>
+  <si>
+    <t>兴海县</t>
+  </si>
+  <si>
+    <t>玉树市</t>
+  </si>
+  <si>
+    <t>石渠县</t>
+  </si>
+  <si>
+    <t>河南蒙古族自治县</t>
   </si>
 </sst>
 </file>
@@ -75,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,9 +104,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -107,14 +118,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -122,6 +171,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -130,49 +231,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,68 +254,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,7 +264,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,201 +384,77 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,11 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +542,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,124 +561,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,26 +687,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,18 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1109,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1125,94 +1091,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="17.6" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.6" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="17.6" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="17.6" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="17.6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="17.6" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="17.6" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="17.6" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="17.6" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="17.6" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="17.6" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="17.6" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="17.6" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="17.6" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="17.6" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="17.6" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20"/>
+    <row r="18" ht="17.6" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21"/>
@@ -1316,8 +1288,248 @@
     <row r="54" spans="1:1">
       <c r="A54"/>
     </row>
+    <row r="55" spans="1:1">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A55:A1048576">
+  <conditionalFormatting sqref="A1 A135:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5不到达地址维护/bdd.xlsx
+++ b/5不到达地址维护/bdd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="31920" windowHeight="14720"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,66 +17,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>天涯区</t>
-  </si>
-  <si>
-    <t>盈江县</t>
-  </si>
-  <si>
-    <t>陇川县</t>
+    <t>江宁区</t>
+  </si>
+  <si>
+    <t>和县</t>
+  </si>
+  <si>
+    <t>天长市</t>
+  </si>
+  <si>
+    <t>鸠江区</t>
+  </si>
+  <si>
+    <t>德城区</t>
+  </si>
+  <si>
+    <t>鄞州区</t>
+  </si>
+  <si>
+    <t>海曙区</t>
+  </si>
+  <si>
+    <t>西陵区</t>
+  </si>
+  <si>
+    <t>汉口区</t>
+  </si>
+  <si>
+    <t>衡阳县</t>
+  </si>
+  <si>
+    <t>新宁县</t>
+  </si>
+  <si>
+    <t>宁乡市</t>
+  </si>
+  <si>
+    <t>雨花区</t>
+  </si>
+  <si>
+    <t>商城县</t>
+  </si>
+  <si>
+    <t>东城区</t>
+  </si>
+  <si>
+    <t>中宁县</t>
+  </si>
+  <si>
+    <t>碑林区</t>
+  </si>
+  <si>
+    <t>南明区</t>
+  </si>
+  <si>
+    <t>七星关区</t>
   </si>
   <si>
     <t>瑞丽市</t>
   </si>
   <si>
-    <t>呈贡区</t>
-  </si>
-  <si>
-    <t>胶州市</t>
-  </si>
-  <si>
-    <t>旬阳县</t>
-  </si>
-  <si>
-    <t>塔什库尔干塔吉克自治县</t>
-  </si>
-  <si>
-    <t>紫阳县</t>
-  </si>
-  <si>
-    <t>平利县</t>
-  </si>
-  <si>
-    <t>白河县</t>
-  </si>
-  <si>
-    <t>衡阳县</t>
-  </si>
-  <si>
-    <t>零陵区</t>
-  </si>
-  <si>
-    <t>柯坪县</t>
-  </si>
-  <si>
-    <t>泽库县</t>
-  </si>
-  <si>
-    <t>兴海县</t>
-  </si>
-  <si>
-    <t>玉树市</t>
-  </si>
-  <si>
-    <t>石渠县</t>
-  </si>
-  <si>
-    <t>河南蒙古族自治县</t>
+    <t>甘井子区</t>
+  </si>
+  <si>
+    <t>船营区</t>
   </si>
 </sst>
 </file>
@@ -84,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,11 +113,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -125,15 +132,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,10 +157,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,18 +196,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,45 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,23 +227,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,43 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,150 +461,53 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -463,6 +517,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,30 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,154 +609,130 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,26 +741,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,7 +770,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1078,7 +1146,7 @@
   <dimension ref="A1:A134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1091,112 +1159,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:1">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:1">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21"/>
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22"/>
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23"/>
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25"/>

--- a/5不到达地址维护/bdd.xlsx
+++ b/5不到达地址维护/bdd.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>title</t>
   </si>
@@ -25,67 +25,154 @@
     <t>江宁区</t>
   </si>
   <si>
-    <t>和县</t>
-  </si>
-  <si>
-    <t>天长市</t>
-  </si>
-  <si>
-    <t>鸠江区</t>
-  </si>
-  <si>
-    <t>德城区</t>
-  </si>
-  <si>
-    <t>鄞州区</t>
-  </si>
-  <si>
-    <t>海曙区</t>
-  </si>
-  <si>
-    <t>西陵区</t>
-  </si>
-  <si>
-    <t>汉口区</t>
-  </si>
-  <si>
-    <t>衡阳县</t>
-  </si>
-  <si>
-    <t>新宁县</t>
+    <t>二七区</t>
+  </si>
+  <si>
+    <t>邗江区</t>
+  </si>
+  <si>
+    <t>永定区</t>
+  </si>
+  <si>
+    <t>宏州陇川县</t>
+  </si>
+  <si>
+    <t>溧水区</t>
+  </si>
+  <si>
+    <t>建邺区</t>
+  </si>
+  <si>
+    <t>高淳区</t>
+  </si>
+  <si>
+    <t>栖霞区</t>
+  </si>
+  <si>
+    <t>玄武区</t>
+  </si>
+  <si>
+    <t>秦淮区</t>
+  </si>
+  <si>
+    <t>鼓楼区</t>
+  </si>
+  <si>
+    <t>雨花台区</t>
+  </si>
+  <si>
+    <t>泗阳县</t>
+  </si>
+  <si>
+    <t>宿豫区</t>
+  </si>
+  <si>
+    <t>广陵区</t>
+  </si>
+  <si>
+    <t>洪泽区</t>
+  </si>
+  <si>
+    <t>盱眙县</t>
+  </si>
+  <si>
+    <t>武陵源区</t>
+  </si>
+  <si>
+    <t>云龙示范区</t>
+  </si>
+  <si>
+    <t>石峰区</t>
+  </si>
+  <si>
+    <t>荷塘区</t>
+  </si>
+  <si>
+    <t>湘西州</t>
+  </si>
+  <si>
+    <t>赫山区</t>
+  </si>
+  <si>
+    <t>雨湖区</t>
+  </si>
+  <si>
+    <t>天心区</t>
   </si>
   <si>
     <t>宁乡市</t>
   </si>
   <si>
-    <t>雨花区</t>
-  </si>
-  <si>
-    <t>商城县</t>
-  </si>
-  <si>
-    <t>东城区</t>
-  </si>
-  <si>
-    <t>中宁县</t>
-  </si>
-  <si>
-    <t>碑林区</t>
-  </si>
-  <si>
-    <t>南明区</t>
-  </si>
-  <si>
-    <t>七星关区</t>
+    <t>大东区</t>
+  </si>
+  <si>
+    <t>甘井子区</t>
+  </si>
+  <si>
+    <t>青羊区</t>
+  </si>
+  <si>
+    <t>高新区</t>
+  </si>
+  <si>
+    <t>涪城区</t>
+  </si>
+  <si>
+    <t>南溪区</t>
+  </si>
+  <si>
+    <t>江阳区</t>
+  </si>
+  <si>
+    <t>管城回族区</t>
+  </si>
+  <si>
+    <t>新郑教育园区</t>
+  </si>
+  <si>
+    <t>惠济区</t>
+  </si>
+  <si>
+    <t>金水区</t>
+  </si>
+  <si>
+    <t>梁园区</t>
+  </si>
+  <si>
+    <t>睢阳区</t>
+  </si>
+  <si>
+    <t>遂平县</t>
+  </si>
+  <si>
+    <t>西平县</t>
+  </si>
+  <si>
+    <t>红安县</t>
+  </si>
+  <si>
+    <t>思明区</t>
+  </si>
+  <si>
+    <t>龙华区</t>
+  </si>
+  <si>
+    <t>浦东新区</t>
+  </si>
+  <si>
+    <t>房山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昌平区 </t>
+  </si>
+  <si>
+    <t>船营区</t>
+  </si>
+  <si>
+    <t>江津区</t>
   </si>
   <si>
     <t>瑞丽市</t>
-  </si>
-  <si>
-    <t>甘井子区</t>
-  </si>
-  <si>
-    <t>船营区</t>
   </si>
 </sst>
 </file>
@@ -93,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -119,16 +206,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,25 +283,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,90 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,192 +364,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -499,37 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,23 +604,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,28 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,152 +689,152 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +847,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1143,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1185,179 +1253,237 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="25" customHeight="1" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25"/>
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26"/>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29"/>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31"/>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34"/>
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35"/>
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36"/>
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37"/>
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38"/>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39"/>
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40"/>
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41"/>
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42"/>
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43"/>
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44"/>
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45"/>
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46"/>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47"/>
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48"/>
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A50" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" ht="17.55" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52"/>
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1">
       <c r="A54"/>
@@ -1566,44 +1692,8 @@
     <row r="122" spans="1:1">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A135:A1048576">
+  <conditionalFormatting sqref="A1 A123:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5不到达地址维护/bdd.xlsx
+++ b/5不到达地址维护/bdd.xlsx
@@ -4,172 +4,209 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>邗江区</t>
+  </si>
+  <si>
+    <t>广陵区</t>
+  </si>
+  <si>
     <t>江宁区</t>
   </si>
   <si>
-    <t>二七区</t>
-  </si>
-  <si>
-    <t>邗江区</t>
-  </si>
-  <si>
-    <t>永定区</t>
-  </si>
-  <si>
-    <t>宏州陇川县</t>
-  </si>
-  <si>
-    <t>溧水区</t>
-  </si>
-  <si>
-    <t>建邺区</t>
-  </si>
-  <si>
-    <t>高淳区</t>
-  </si>
-  <si>
-    <t>栖霞区</t>
-  </si>
-  <si>
-    <t>玄武区</t>
-  </si>
-  <si>
-    <t>秦淮区</t>
-  </si>
-  <si>
-    <t>鼓楼区</t>
-  </si>
-  <si>
-    <t>雨花台区</t>
-  </si>
-  <si>
-    <t>泗阳县</t>
-  </si>
-  <si>
-    <t>宿豫区</t>
-  </si>
-  <si>
-    <t>广陵区</t>
-  </si>
-  <si>
-    <t>洪泽区</t>
-  </si>
-  <si>
-    <t>盱眙县</t>
-  </si>
-  <si>
-    <t>武陵源区</t>
-  </si>
-  <si>
-    <t>云龙示范区</t>
-  </si>
-  <si>
-    <t>石峰区</t>
-  </si>
-  <si>
-    <t>荷塘区</t>
-  </si>
-  <si>
-    <t>湘西州</t>
-  </si>
-  <si>
-    <t>赫山区</t>
-  </si>
-  <si>
-    <t>雨湖区</t>
-  </si>
-  <si>
-    <t>天心区</t>
+    <t>惠山区</t>
+  </si>
+  <si>
+    <t>德城区</t>
+  </si>
+  <si>
+    <t>庐阳区</t>
+  </si>
+  <si>
+    <t>宣州区</t>
+  </si>
+  <si>
+    <t>奉贤区</t>
+  </si>
+  <si>
+    <t>宝山区</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t>北仑区</t>
+  </si>
+  <si>
+    <t>新吴区</t>
+  </si>
+  <si>
+    <t>任城区</t>
+  </si>
+  <si>
+    <t>港闸区</t>
+  </si>
+  <si>
+    <t>西陵区</t>
+  </si>
+  <si>
+    <t>汉阳区</t>
+  </si>
+  <si>
+    <t>浉河区</t>
+  </si>
+  <si>
+    <t>温县</t>
+  </si>
+  <si>
+    <t>裕华区</t>
+  </si>
+  <si>
+    <t>西青区</t>
+  </si>
+  <si>
+    <t>天河区</t>
+  </si>
+  <si>
+    <t>黄埔区</t>
+  </si>
+  <si>
+    <t>白云区</t>
+  </si>
+  <si>
+    <t>青秀区</t>
+  </si>
+  <si>
+    <t>兴宁区</t>
+  </si>
+  <si>
+    <t>雨花区</t>
+  </si>
+  <si>
+    <t>双牌县</t>
+  </si>
+  <si>
+    <t>赫山区
+资阳区</t>
   </si>
   <si>
     <t>宁乡市</t>
   </si>
   <si>
-    <t>大东区</t>
-  </si>
-  <si>
-    <t>甘井子区</t>
-  </si>
-  <si>
-    <t>青羊区</t>
-  </si>
-  <si>
-    <t>高新区</t>
-  </si>
-  <si>
-    <t>涪城区</t>
-  </si>
-  <si>
-    <t>南溪区</t>
-  </si>
-  <si>
-    <t>江阳区</t>
-  </si>
-  <si>
-    <t>管城回族区</t>
-  </si>
-  <si>
-    <t>新郑教育园区</t>
-  </si>
-  <si>
-    <t>惠济区</t>
-  </si>
-  <si>
-    <t>金水区</t>
-  </si>
-  <si>
-    <t>梁园区</t>
-  </si>
-  <si>
-    <t>睢阳区</t>
-  </si>
-  <si>
-    <t>遂平县</t>
-  </si>
-  <si>
-    <t>西平县</t>
-  </si>
-  <si>
-    <t>红安县</t>
+    <t>道县</t>
+  </si>
+  <si>
+    <t>泉港区</t>
+  </si>
+  <si>
+    <t>仙游县</t>
+  </si>
+  <si>
+    <t>闽侯县</t>
+  </si>
+  <si>
+    <t>同安区</t>
+  </si>
+  <si>
+    <t>集美区</t>
+  </si>
+  <si>
+    <t>海沧区</t>
   </si>
   <si>
     <t>思明区</t>
   </si>
   <si>
-    <t>龙华区</t>
-  </si>
-  <si>
-    <t>浦东新区</t>
-  </si>
-  <si>
-    <t>房山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">昌平区 </t>
+    <t>厦门市</t>
+  </si>
+  <si>
+    <t>湖里区</t>
+  </si>
+  <si>
+    <t>仓山区</t>
+  </si>
+  <si>
+    <t>长乐区</t>
+  </si>
+  <si>
+    <t>惠安县</t>
+  </si>
+  <si>
+    <t>龙海市</t>
+  </si>
+  <si>
+    <t>翔安区</t>
+  </si>
+  <si>
+    <t>丰泽区</t>
+  </si>
+  <si>
+    <t>潮安区</t>
+  </si>
+  <si>
+    <t>碑林区</t>
+  </si>
+  <si>
+    <t>阿合奇县</t>
+  </si>
+  <si>
+    <t>博乐市</t>
+  </si>
+  <si>
+    <t>双流区</t>
+  </si>
+  <si>
+    <t>渝中区</t>
+  </si>
+  <si>
+    <t>北碚区</t>
+  </si>
+  <si>
+    <t>合江县</t>
+  </si>
+  <si>
+    <t>澄海区</t>
+  </si>
+  <si>
+    <t>漳浦县</t>
+  </si>
+  <si>
+    <t>安溪县</t>
+  </si>
+  <si>
+    <t>洛江区</t>
+  </si>
+  <si>
+    <t>南安市</t>
+  </si>
+  <si>
+    <t>晋江市</t>
+  </si>
+  <si>
+    <t>巴彦县</t>
   </si>
   <si>
     <t>船营区</t>
   </si>
   <si>
-    <t>江津区</t>
+    <t>龙江县</t>
   </si>
   <si>
     <t>瑞丽市</t>
@@ -180,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -206,14 +243,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,128 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -364,19 +401,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,168 +563,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -586,18 +623,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="hair">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -619,6 +654,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -634,26 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,6 +691,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,152 +739,152 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,7 +897,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1211,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1233,157 +1289,157 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" ht="25" customHeight="1" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row r="29" ht="28" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1393,133 +1449,157 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="17.55" spans="1:1">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54"/>
+      <c r="A54" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55"/>
+      <c r="A55" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56"/>
+      <c r="A56" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57"/>
+      <c r="A57" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58"/>
+      <c r="A58" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59"/>
+      <c r="A59" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60"/>
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61"/>
+      <c r="A61" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62"/>
+      <c r="A62" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63"/>
+      <c r="A63" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64"/>
+      <c r="A64" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1">
       <c r="A66"/>
@@ -1623,77 +1703,8 @@
     <row r="99" spans="1:1">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A123:A1048576">
+  <conditionalFormatting sqref="A1 A105:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
